--- a/content/demo7-4/scenarios/000_ScenariosDemo.xlsx
+++ b/content/demo7-4/scenarios/000_ScenariosDemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skl/REPOES/Bancor/JupyLiteCarbonSim/content/demo7-4/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C34B8E-7627-A642-9410-92F96A80E51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C5039C-4239-D148-B8F9-AACA5947E746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="1080" windowWidth="25180" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="76">
   <si>
     <t>scid</t>
   </si>
@@ -219,6 +219,51 @@
   </si>
   <si>
     <t>only (generated) hf</t>
+  </si>
+  <si>
+    <t>p_lo</t>
+  </si>
+  <si>
+    <t>p_hi</t>
+  </si>
+  <si>
+    <t>start_below</t>
+  </si>
+  <si>
+    <t>fee_pc</t>
+  </si>
+  <si>
+    <t>Uniswap v3</t>
+  </si>
+  <si>
+    <t>uv3</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>p_buy_a</t>
+  </si>
+  <si>
+    <t>p_buy_b</t>
+  </si>
+  <si>
+    <t>p_sell_a</t>
+  </si>
+  <si>
+    <t>p_sell_b</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
   </si>
 </sst>
 </file>
@@ -409,7 +454,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -465,12 +510,6 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -524,10 +563,31 @@
     <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -870,14 +930,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:AE50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K30" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -895,40 +954,40 @@
     <col min="13" max="13" width="15.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="11.1640625" style="4" customWidth="1"/>
     <col min="15" max="20" width="10.83203125" style="4" customWidth="1"/>
-    <col min="21" max="22" width="12.33203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="60.5" customWidth="1"/>
-    <col min="24" max="16384" width="8.83203125" style="1"/>
+    <col min="21" max="30" width="12.33203125" style="4" customWidth="1"/>
+    <col min="31" max="31" width="60.5" customWidth="1"/>
+    <col min="32" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="16" t="s">
@@ -961,25 +1020,49 @@
       <c r="T1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="AE1" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="25">
         <f t="shared" ref="B2" si="0">IF(A2=A1,B1+1,1)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="str">
+      <c r="C2" s="25" t="str">
         <f t="shared" ref="C2" si="1">A2&amp;" - "&amp;B2</f>
         <v>Intro - 1</v>
       </c>
@@ -989,29 +1072,29 @@
       <c r="E2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="36">
-        <v>1</v>
-      </c>
-      <c r="J2" s="37">
-        <v>1</v>
-      </c>
-      <c r="K2" s="41">
+      <c r="F2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="34">
+        <v>1</v>
+      </c>
+      <c r="J2" s="35">
+        <v>1</v>
+      </c>
+      <c r="K2" s="38">
         <f t="shared" ref="K2" si="2">0.25/(2+1)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L2" s="17">
         <v>1</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="8" t="s">
@@ -1026,36 +1109,44 @@
       <c r="Q2" s="15">
         <v>0.1</v>
       </c>
-      <c r="R2" s="29">
+      <c r="R2" s="27">
         <f t="shared" ref="R2" si="3">Q2</f>
         <v>0.1</v>
       </c>
       <c r="S2" s="15">
         <v>0</v>
       </c>
-      <c r="T2" s="29">
+      <c r="T2" s="27">
         <f t="shared" ref="T2" si="4">S2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="22">
-        <v>1</v>
-      </c>
-      <c r="V2" s="5">
+      <c r="U2" s="20">
+        <v>1</v>
+      </c>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="5">
         <v>1000</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="AE2" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="25">
         <f>IF(A3=A2,B2+1,1)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="str">
+      <c r="C3" s="25" t="str">
         <f>A3&amp;" - "&amp;B3</f>
         <v>Intro - 2</v>
       </c>
@@ -1065,19 +1156,19 @@
       <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="36">
-        <v>1</v>
-      </c>
-      <c r="J3" s="37">
+      <c r="F3" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
+        <v>1</v>
+      </c>
+      <c r="J3" s="35">
         <v>1</v>
       </c>
       <c r="K3" s="17">
@@ -1086,8 +1177,8 @@
       <c r="L3" s="17">
         <v>1</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>20</v>
+      <c r="M3" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>21</v>
@@ -1101,36 +1192,44 @@
       <c r="Q3" s="15">
         <v>0.1</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="27">
         <f>Q3</f>
         <v>0.1</v>
       </c>
       <c r="S3" s="15">
         <v>0</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="27">
         <f>S3</f>
         <v>0</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="20">
         <v>0.5</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="5">
         <v>1000</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="AE3" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="25">
         <f>IF(A4=A3,B3+1,1)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="str">
+      <c r="C4" s="25" t="str">
         <f t="shared" ref="C4:C5" si="5">A4&amp;" - "&amp;B4</f>
         <v>Intro - 3</v>
       </c>
@@ -1140,19 +1239,19 @@
       <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="36">
-        <v>1</v>
-      </c>
-      <c r="J4" s="37">
+      <c r="F4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="34">
+        <v>1</v>
+      </c>
+      <c r="J4" s="35">
         <v>1</v>
       </c>
       <c r="K4" s="17">
@@ -1161,8 +1260,8 @@
       <c r="L4" s="17">
         <v>1</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>20</v>
+      <c r="M4" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>21</v>
@@ -1176,36 +1275,44 @@
       <c r="Q4" s="15">
         <v>0.1</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="27">
         <f t="shared" ref="R4:R5" si="6">Q4</f>
         <v>0.1</v>
       </c>
       <c r="S4" s="15">
         <v>0</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="27">
         <f t="shared" ref="T4:T5" si="7">S4</f>
         <v>0</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="20">
         <v>0.5</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="5">
         <v>1000</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="AE4" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="25">
         <f>IF(A5=A4,B4+1,1)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="str">
+      <c r="C5" s="25" t="str">
         <f t="shared" si="5"/>
         <v>Intro - 4</v>
       </c>
@@ -1215,19 +1322,19 @@
       <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="36">
-        <v>1</v>
-      </c>
-      <c r="J5" s="37">
+      <c r="F5" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
+        <v>1</v>
+      </c>
+      <c r="J5" s="35">
         <v>1</v>
       </c>
       <c r="K5" s="17">
@@ -1236,8 +1343,8 @@
       <c r="L5" s="17">
         <v>1</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>20</v>
+      <c r="M5" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>21</v>
@@ -1251,36 +1358,44 @@
       <c r="Q5" s="15">
         <v>0.1</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="27">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="S5" s="15">
         <v>0</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U5" s="22">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5">
+      <c r="U5" s="20">
+        <v>0</v>
+      </c>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="5">
         <v>1000</v>
       </c>
-      <c r="W5" s="31" t="s">
+      <c r="AE5" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <f>IF(A6=A5,B5+1,1)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="str">
+      <c r="C6" s="25" t="str">
         <f t="shared" ref="C6:C22" si="8">A6&amp;" - "&amp;B6</f>
         <v>Explainer (cycles) - 1</v>
       </c>
@@ -1290,29 +1405,29 @@
       <c r="E6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="36">
-        <v>1</v>
-      </c>
-      <c r="J6" s="37">
-        <v>1</v>
-      </c>
-      <c r="K6" s="41">
+      <c r="F6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35">
+        <v>1</v>
+      </c>
+      <c r="K6" s="38">
         <f>0.25/(0+1)</f>
         <v>0.25</v>
       </c>
       <c r="L6" s="17">
         <v>1</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N6" s="8" t="s">
@@ -1333,29 +1448,37 @@
       <c r="S6" s="15">
         <v>0</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="27">
         <f>S6</f>
         <v>0</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="20">
         <v>0.5</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="5">
         <v>1000</v>
       </c>
-      <c r="W6" s="31" t="s">
+      <c r="AE6" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="25">
         <f>IF(A7=A6,B6+1,1)</f>
         <v>2</v>
       </c>
-      <c r="C7" s="27" t="str">
+      <c r="C7" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (cycles) - 2</v>
       </c>
@@ -1365,29 +1488,29 @@
       <c r="E7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="36">
-        <v>1</v>
-      </c>
-      <c r="J7" s="37">
-        <v>1</v>
-      </c>
-      <c r="K7" s="41">
+      <c r="F7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34">
+        <v>1</v>
+      </c>
+      <c r="J7" s="35">
+        <v>1</v>
+      </c>
+      <c r="K7" s="38">
         <f>0.25/(1+1)</f>
         <v>0.125</v>
       </c>
       <c r="L7" s="17">
         <v>1</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="8" t="s">
@@ -1408,29 +1531,37 @@
       <c r="S7" s="15">
         <v>0</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="27">
         <f>S7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="20">
         <v>0.5</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="5">
         <v>1000</v>
       </c>
-      <c r="W7" s="31" t="s">
+      <c r="AE7" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="25">
         <f>IF(A8=A7,B7+1,1)</f>
         <v>3</v>
       </c>
-      <c r="C8" s="27" t="str">
+      <c r="C8" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (cycles) - 3</v>
       </c>
@@ -1440,29 +1571,29 @@
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="36">
-        <v>1</v>
-      </c>
-      <c r="J8" s="37">
-        <v>1</v>
-      </c>
-      <c r="K8" s="41">
+      <c r="F8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34">
+        <v>1</v>
+      </c>
+      <c r="J8" s="35">
+        <v>1</v>
+      </c>
+      <c r="K8" s="38">
         <f>0.25/(2+1)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L8" s="17">
         <v>1</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N8" s="8" t="s">
@@ -1483,29 +1614,37 @@
       <c r="S8" s="15">
         <v>0</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="27">
         <f>S8</f>
         <v>0</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="20">
         <v>0.5</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="5">
         <v>1000</v>
       </c>
-      <c r="W8" s="31" t="s">
+      <c r="AE8" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="25">
         <f>IF(A9=A8,B8+1,1)</f>
         <v>4</v>
       </c>
-      <c r="C9" s="27" t="str">
+      <c r="C9" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (cycles) - 4</v>
       </c>
@@ -1515,29 +1654,29 @@
       <c r="E9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
-        <v>1</v>
-      </c>
-      <c r="J9" s="37">
-        <v>1</v>
-      </c>
-      <c r="K9" s="41">
+      <c r="F9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34">
+        <v>1</v>
+      </c>
+      <c r="J9" s="35">
+        <v>1</v>
+      </c>
+      <c r="K9" s="38">
         <f>0.25/(3+1)</f>
         <v>6.25E-2</v>
       </c>
       <c r="L9" s="17">
         <v>1</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N9" s="8" t="s">
@@ -1558,29 +1697,37 @@
       <c r="S9" s="15">
         <v>0</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="27">
         <f>S9</f>
         <v>0</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="20">
         <v>0.5</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="5">
         <v>1000</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="AE9" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="25">
         <f>IF(A10=A9,B9+1,1)</f>
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C10" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (cycles) - 5</v>
       </c>
@@ -1590,29 +1737,29 @@
       <c r="E10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="36">
-        <v>1</v>
-      </c>
-      <c r="J10" s="37">
-        <v>1</v>
-      </c>
-      <c r="K10" s="41">
+      <c r="F10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="34">
+        <v>1</v>
+      </c>
+      <c r="J10" s="35">
+        <v>1</v>
+      </c>
+      <c r="K10" s="38">
         <f>0.25/(4+1)</f>
         <v>0.05</v>
       </c>
       <c r="L10" s="17">
         <v>1</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N10" s="8" t="s">
@@ -1633,29 +1780,37 @@
       <c r="S10" s="15">
         <v>0</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="27">
         <f>S10</f>
         <v>0</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10" s="20">
         <v>0.5</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="5">
         <v>1000</v>
       </c>
-      <c r="W10" s="31" t="s">
+      <c r="AE10" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="25">
         <f>IF(A11=A10,B10+1,1)</f>
         <v>6</v>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (cycles) - 6</v>
       </c>
@@ -1665,29 +1820,29 @@
       <c r="E11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="36">
-        <v>1</v>
-      </c>
-      <c r="J11" s="37">
-        <v>1</v>
-      </c>
-      <c r="K11" s="41">
+      <c r="F11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34">
+        <v>1</v>
+      </c>
+      <c r="J11" s="35">
+        <v>1</v>
+      </c>
+      <c r="K11" s="38">
         <f>0.25/(5+1)</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="L11" s="17">
         <v>1</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N11" s="8" t="s">
@@ -1708,29 +1863,37 @@
       <c r="S11" s="15">
         <v>0</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="27">
         <f>S11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11" s="20">
         <v>0.5</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="5">
         <v>1000</v>
       </c>
-      <c r="W11" s="31" t="s">
+      <c r="AE11" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="25">
         <f>IF(A12=A11,B11+1,1)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (gap and width) - 1</v>
       </c>
@@ -1740,29 +1903,29 @@
       <c r="E12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
-        <v>1</v>
-      </c>
-      <c r="J12" s="37">
-        <v>1</v>
-      </c>
-      <c r="K12" s="41">
+      <c r="F12" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="34">
+        <v>1</v>
+      </c>
+      <c r="J12" s="35">
+        <v>1</v>
+      </c>
+      <c r="K12" s="38">
         <f>0.25/(2+1)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L12" s="17">
         <v>1</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="M12" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N12" s="8" t="s">
@@ -1777,36 +1940,44 @@
       <c r="Q12" s="15">
         <v>0.1</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="27">
         <f>Q12</f>
         <v>0.1</v>
       </c>
       <c r="S12" s="15">
         <v>0</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="27">
         <f>S12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="22">
-        <v>1</v>
-      </c>
-      <c r="V12" s="5">
+      <c r="U12" s="20">
+        <v>1</v>
+      </c>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="5">
         <v>1000</v>
       </c>
-      <c r="W12" s="31" t="s">
+      <c r="AE12" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="25">
         <f t="shared" ref="B13:B22" si="9">IF(A13=A12,B12+1,1)</f>
         <v>2</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (gap and width) - 2</v>
       </c>
@@ -1816,29 +1987,29 @@
       <c r="E13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="36">
-        <v>1</v>
-      </c>
-      <c r="J13" s="37">
-        <v>1</v>
-      </c>
-      <c r="K13" s="41">
+      <c r="F13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="34">
+        <v>1</v>
+      </c>
+      <c r="J13" s="35">
+        <v>1</v>
+      </c>
+      <c r="K13" s="38">
         <f t="shared" ref="K13:K25" si="10">0.25/(2+1)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L13" s="17">
         <v>1</v>
       </c>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N13" s="8" t="s">
@@ -1853,36 +2024,44 @@
       <c r="Q13" s="15">
         <v>0.1</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="27">
         <f t="shared" ref="R13:R22" si="11">Q13</f>
         <v>0.1</v>
       </c>
       <c r="S13" s="15">
         <v>0</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="27">
         <f t="shared" ref="T13:T22" si="12">S13</f>
         <v>0</v>
       </c>
-      <c r="U13" s="22">
-        <v>1</v>
-      </c>
-      <c r="V13" s="5">
+      <c r="U13" s="20">
+        <v>1</v>
+      </c>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="5">
         <v>1000</v>
       </c>
-      <c r="W13" s="31" t="s">
+      <c r="AE13" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="25">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (gap and width) - 3</v>
       </c>
@@ -1892,29 +2071,29 @@
       <c r="E14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="36">
-        <v>1</v>
-      </c>
-      <c r="J14" s="37">
-        <v>1</v>
-      </c>
-      <c r="K14" s="41">
+      <c r="F14" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="34">
+        <v>1</v>
+      </c>
+      <c r="J14" s="35">
+        <v>1</v>
+      </c>
+      <c r="K14" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L14" s="17">
         <v>1</v>
       </c>
-      <c r="M14" s="40" t="s">
+      <c r="M14" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N14" s="8" t="s">
@@ -1929,36 +2108,44 @@
       <c r="Q14" s="15">
         <v>0.1</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="27">
         <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="S14" s="15">
         <v>0</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U14" s="22">
-        <v>1</v>
-      </c>
-      <c r="V14" s="5">
+      <c r="U14" s="20">
+        <v>1</v>
+      </c>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="5">
         <v>1000</v>
       </c>
-      <c r="W14" s="31" t="s">
+      <c r="AE14" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="25">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (gap and width) - 4</v>
       </c>
@@ -1968,29 +2155,29 @@
       <c r="E15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="36">
-        <v>1</v>
-      </c>
-      <c r="J15" s="37">
-        <v>1</v>
-      </c>
-      <c r="K15" s="41">
+      <c r="F15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="34">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35">
+        <v>1</v>
+      </c>
+      <c r="K15" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L15" s="17">
         <v>1</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N15" s="8" t="s">
@@ -2005,36 +2192,44 @@
       <c r="Q15" s="15">
         <v>0.1</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="27">
         <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="S15" s="15">
         <v>0</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U15" s="22">
-        <v>1</v>
-      </c>
-      <c r="V15" s="5">
+      <c r="U15" s="20">
+        <v>1</v>
+      </c>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="5">
         <v>1000</v>
       </c>
-      <c r="W15" s="31" t="s">
+      <c r="AE15" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="25">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (gap and width) - 5</v>
       </c>
@@ -2044,29 +2239,29 @@
       <c r="E16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
-        <v>1</v>
-      </c>
-      <c r="J16" s="37">
-        <v>1</v>
-      </c>
-      <c r="K16" s="41">
+      <c r="F16" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="34">
+        <v>1</v>
+      </c>
+      <c r="J16" s="35">
+        <v>1</v>
+      </c>
+      <c r="K16" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L16" s="17">
         <v>1</v>
       </c>
-      <c r="M16" s="40" t="s">
+      <c r="M16" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N16" s="8" t="s">
@@ -2081,36 +2276,44 @@
       <c r="Q16" s="15">
         <v>0.2</v>
       </c>
-      <c r="R16" s="29">
+      <c r="R16" s="27">
         <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="S16" s="15">
         <v>0</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U16" s="22">
-        <v>1</v>
-      </c>
-      <c r="V16" s="5">
+      <c r="U16" s="20">
+        <v>1</v>
+      </c>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="5">
         <v>1000</v>
       </c>
-      <c r="W16" s="31" t="s">
+      <c r="AE16" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="25">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (gap and width) - 6</v>
       </c>
@@ -2120,29 +2323,29 @@
       <c r="E17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="36">
-        <v>1</v>
-      </c>
-      <c r="J17" s="37">
-        <v>1</v>
-      </c>
-      <c r="K17" s="41">
+      <c r="F17" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="34">
+        <v>1</v>
+      </c>
+      <c r="J17" s="35">
+        <v>1</v>
+      </c>
+      <c r="K17" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L17" s="17">
         <v>1</v>
       </c>
-      <c r="M17" s="40" t="s">
+      <c r="M17" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N17" s="8" t="s">
@@ -2157,36 +2360,44 @@
       <c r="Q17" s="15">
         <v>0.4</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="27">
         <f t="shared" si="11"/>
         <v>0.4</v>
       </c>
       <c r="S17" s="15">
         <v>0</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U17" s="22">
-        <v>1</v>
-      </c>
-      <c r="V17" s="5">
+      <c r="U17" s="20">
+        <v>1</v>
+      </c>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="5">
         <v>1000</v>
       </c>
-      <c r="W17" s="31" t="s">
+      <c r="AE17" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="25">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (gap and width) - 7</v>
       </c>
@@ -2196,29 +2407,29 @@
       <c r="E18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="36">
-        <v>1</v>
-      </c>
-      <c r="J18" s="37">
-        <v>1</v>
-      </c>
-      <c r="K18" s="41">
+      <c r="F18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="34">
+        <v>1</v>
+      </c>
+      <c r="J18" s="35">
+        <v>1</v>
+      </c>
+      <c r="K18" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L18" s="17">
         <v>1</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N18" s="8" t="s">
@@ -2233,35 +2444,43 @@
       <c r="Q18" s="15">
         <v>0.9</v>
       </c>
-      <c r="R18" s="29">
+      <c r="R18" s="27">
         <v>0.6</v>
       </c>
       <c r="S18" s="15">
         <v>0</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T18" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U18" s="22">
-        <v>1</v>
-      </c>
-      <c r="V18" s="5">
+      <c r="U18" s="20">
+        <v>1</v>
+      </c>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="5">
         <v>1000</v>
       </c>
-      <c r="W18" s="31" t="s">
+      <c r="AE18" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="25">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (gap and width) - 8</v>
       </c>
@@ -2271,29 +2490,29 @@
       <c r="E19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="36">
-        <v>1</v>
-      </c>
-      <c r="J19" s="37">
-        <v>1</v>
-      </c>
-      <c r="K19" s="41">
+      <c r="F19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="34">
+        <v>1</v>
+      </c>
+      <c r="J19" s="35">
+        <v>1</v>
+      </c>
+      <c r="K19" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L19" s="17">
         <v>1</v>
       </c>
-      <c r="M19" s="40" t="s">
+      <c r="M19" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N19" s="8" t="s">
@@ -2308,36 +2527,44 @@
       <c r="Q19" s="15">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="R19" s="29">
+      <c r="R19" s="27">
         <f t="shared" si="11"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="S19" s="15">
         <v>0</v>
       </c>
-      <c r="T19" s="29">
+      <c r="T19" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U19" s="22">
-        <v>1</v>
-      </c>
-      <c r="V19" s="5">
+      <c r="U19" s="20">
+        <v>1</v>
+      </c>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="5">
         <v>1000</v>
       </c>
-      <c r="W19" s="31" t="s">
+      <c r="AE19" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="25">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (gap and width) - 9</v>
       </c>
@@ -2347,29 +2574,29 @@
       <c r="E20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="36">
-        <v>1</v>
-      </c>
-      <c r="J20" s="37">
-        <v>1</v>
-      </c>
-      <c r="K20" s="41">
+      <c r="F20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="34">
+        <v>1</v>
+      </c>
+      <c r="J20" s="35">
+        <v>1</v>
+      </c>
+      <c r="K20" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L20" s="17">
         <v>1</v>
       </c>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N20" s="8" t="s">
@@ -2384,36 +2611,44 @@
       <c r="Q20" s="15">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="R20" s="29">
+      <c r="R20" s="27">
         <f t="shared" si="11"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="S20" s="15">
         <v>0</v>
       </c>
-      <c r="T20" s="29">
+      <c r="T20" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U20" s="22">
-        <v>1</v>
-      </c>
-      <c r="V20" s="5">
+      <c r="U20" s="20">
+        <v>1</v>
+      </c>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="5">
         <v>1000</v>
       </c>
-      <c r="W20" s="31" t="s">
+      <c r="AE20" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="25">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="C21" s="27" t="str">
+      <c r="C21" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (gap and width) - 10</v>
       </c>
@@ -2423,29 +2658,29 @@
       <c r="E21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="36">
-        <v>1</v>
-      </c>
-      <c r="J21" s="37">
-        <v>1</v>
-      </c>
-      <c r="K21" s="41">
+      <c r="F21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="34">
+        <v>1</v>
+      </c>
+      <c r="J21" s="35">
+        <v>1</v>
+      </c>
+      <c r="K21" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L21" s="17">
         <v>1</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N21" s="8" t="s">
@@ -2460,36 +2695,44 @@
       <c r="Q21" s="15">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R21" s="27">
         <f t="shared" si="11"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="S21" s="15">
         <v>0</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U21" s="22">
-        <v>1</v>
-      </c>
-      <c r="V21" s="5">
+      <c r="U21" s="20">
+        <v>1</v>
+      </c>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="5">
         <v>1000</v>
       </c>
-      <c r="W21" s="31" t="s">
+      <c r="AE21" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="25">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="C22" s="27" t="str">
+      <c r="C22" s="25" t="str">
         <f t="shared" si="8"/>
         <v>Explainer (gap and width) - 11</v>
       </c>
@@ -2499,29 +2742,29 @@
       <c r="E22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="36">
-        <v>1</v>
-      </c>
-      <c r="J22" s="37">
-        <v>1</v>
-      </c>
-      <c r="K22" s="41">
+      <c r="F22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="34">
+        <v>1</v>
+      </c>
+      <c r="J22" s="35">
+        <v>1</v>
+      </c>
+      <c r="K22" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L22" s="17">
         <v>1</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N22" s="8" t="s">
@@ -2536,36 +2779,44 @@
       <c r="Q22" s="15">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="R22" s="29">
+      <c r="R22" s="27">
         <f t="shared" si="11"/>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="S22" s="15">
         <v>0</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U22" s="22">
-        <v>1</v>
-      </c>
-      <c r="V22" s="5">
+      <c r="U22" s="20">
+        <v>1</v>
+      </c>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="5">
         <v>1000</v>
       </c>
-      <c r="W22" s="31" t="s">
+      <c r="AE22" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="25">
         <f>IF(A23=A22,B22+1,1)</f>
         <v>1</v>
       </c>
-      <c r="C23" s="27" t="str">
+      <c r="C23" s="25" t="str">
         <f>A23&amp;" - "&amp;B23</f>
         <v>Explainer (hf/lf) - 1</v>
       </c>
@@ -2575,29 +2826,29 @@
       <c r="E23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="36">
-        <v>1</v>
-      </c>
-      <c r="J23" s="37">
+      <c r="F23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="34">
+        <v>1</v>
+      </c>
+      <c r="J23" s="35">
         <v>1.5</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L23" s="17">
         <v>1</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N23" s="8" t="s">
@@ -2612,36 +2863,44 @@
       <c r="Q23" s="15">
         <v>0.1</v>
       </c>
-      <c r="R23" s="29">
+      <c r="R23" s="27">
         <f>Q23</f>
         <v>0.1</v>
       </c>
       <c r="S23" s="15">
         <v>0</v>
       </c>
-      <c r="T23" s="29">
+      <c r="T23" s="27">
         <f>S23</f>
         <v>0</v>
       </c>
-      <c r="U23" s="22">
+      <c r="U23" s="20">
         <v>0.5</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="5">
         <v>1000</v>
       </c>
-      <c r="W23" s="31" t="s">
+      <c r="AE23" s="29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="25">
         <f>IF(A24=A23,B23+1,1)</f>
         <v>2</v>
       </c>
-      <c r="C24" s="27" t="str">
+      <c r="C24" s="25" t="str">
         <f t="shared" ref="C24:C50" si="13">A24&amp;" - "&amp;B24</f>
         <v>Explainer (hf/lf) - 2</v>
       </c>
@@ -2651,29 +2910,29 @@
       <c r="E24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="36">
-        <v>1</v>
-      </c>
-      <c r="J24" s="37">
+      <c r="F24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="34">
+        <v>1</v>
+      </c>
+      <c r="J24" s="35">
         <v>1.5</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L24" s="17">
         <v>1</v>
       </c>
-      <c r="M24" s="40" t="s">
+      <c r="M24" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N24" s="8" t="s">
@@ -2688,36 +2947,44 @@
       <c r="Q24" s="15">
         <v>0.1</v>
       </c>
-      <c r="R24" s="29">
+      <c r="R24" s="27">
         <f>Q24</f>
         <v>0.1</v>
       </c>
       <c r="S24" s="15">
         <v>0</v>
       </c>
-      <c r="T24" s="29">
+      <c r="T24" s="27">
         <f>S24</f>
         <v>0</v>
       </c>
-      <c r="U24" s="22">
+      <c r="U24" s="20">
         <v>0.5</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="5">
         <v>1000</v>
       </c>
-      <c r="W24" s="31" t="s">
+      <c r="AE24" s="29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="25">
         <f>IF(A25=A24,B24+1,1)</f>
         <v>3</v>
       </c>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="25" t="str">
         <f t="shared" si="13"/>
         <v>Explainer (hf/lf) - 3</v>
       </c>
@@ -2727,29 +2994,29 @@
       <c r="E25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="36">
-        <v>1</v>
-      </c>
-      <c r="J25" s="37">
+      <c r="F25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="34">
+        <v>1</v>
+      </c>
+      <c r="J25" s="35">
         <v>1.5</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="38">
         <f t="shared" si="10"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L25" s="17">
         <v>1</v>
       </c>
-      <c r="M25" s="40" t="s">
+      <c r="M25" s="44" t="s">
         <v>39</v>
       </c>
       <c r="N25" s="8" t="s">
@@ -2764,36 +3031,44 @@
       <c r="Q25" s="15">
         <v>0.1</v>
       </c>
-      <c r="R25" s="29">
+      <c r="R25" s="27">
         <f>Q25</f>
         <v>0.1</v>
       </c>
       <c r="S25" s="15">
         <v>0</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="27">
         <f>S25</f>
         <v>0</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25" s="20">
         <v>0.5</v>
       </c>
-      <c r="V25" s="5">
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="5">
         <v>1000</v>
       </c>
-      <c r="W25" s="31" t="s">
+      <c r="AE25" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="25">
         <f>IF(A26=A25,B25+1,1)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="27" t="str">
+      <c r="C26" s="25" t="str">
         <f>A26&amp;" - "&amp;B26</f>
         <v>Crabwalk (BTC/ETH) - 1</v>
       </c>
@@ -2803,19 +3078,19 @@
       <c r="E26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="36">
-        <v>1</v>
-      </c>
-      <c r="J26" s="37">
+      <c r="F26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="34">
+        <v>1</v>
+      </c>
+      <c r="J26" s="35">
         <v>1</v>
       </c>
       <c r="K26" s="17">
@@ -2824,7 +3099,7 @@
       <c r="L26" s="17">
         <v>1</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="45" t="s">
         <v>20</v>
       </c>
       <c r="N26" s="8" t="s">
@@ -2839,36 +3114,44 @@
       <c r="Q26" s="15">
         <v>0.1</v>
       </c>
-      <c r="R26" s="29">
+      <c r="R26" s="27">
         <f>Q26</f>
         <v>0.1</v>
       </c>
       <c r="S26" s="15">
         <v>0</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="27">
         <f>S26</f>
         <v>0</v>
       </c>
-      <c r="U26" s="22">
+      <c r="U26" s="20">
         <v>0.5</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="5">
         <v>1000</v>
       </c>
-      <c r="W26" s="31" t="s">
+      <c r="AE26" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="25">
         <f>IF(A27=A26,B26+1,1)</f>
         <v>2</v>
       </c>
-      <c r="C27" s="27" t="str">
+      <c r="C27" s="25" t="str">
         <f t="shared" ref="C27:C44" si="14">A27&amp;" - "&amp;B27</f>
         <v>Crabwalk (BTC/ETH) - 2</v>
       </c>
@@ -2878,19 +3161,19 @@
       <c r="E27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="36">
-        <v>1</v>
-      </c>
-      <c r="J27" s="37">
+      <c r="F27" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="34">
+        <v>1</v>
+      </c>
+      <c r="J27" s="35">
         <v>1</v>
       </c>
       <c r="K27" s="17">
@@ -2899,7 +3182,7 @@
       <c r="L27" s="17">
         <v>1</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="45" t="s">
         <v>20</v>
       </c>
       <c r="N27" s="8" t="s">
@@ -2914,36 +3197,44 @@
       <c r="Q27" s="15">
         <v>0.1</v>
       </c>
-      <c r="R27" s="29">
+      <c r="R27" s="27">
         <f t="shared" ref="R27:R44" si="15">Q27</f>
         <v>0.1</v>
       </c>
       <c r="S27" s="15">
         <v>0</v>
       </c>
-      <c r="T27" s="29">
+      <c r="T27" s="27">
         <f t="shared" ref="T27:T44" si="16">S27</f>
         <v>0</v>
       </c>
-      <c r="U27" s="22">
+      <c r="U27" s="20">
         <v>0.5</v>
       </c>
-      <c r="V27" s="5">
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="5">
         <v>1000</v>
       </c>
-      <c r="W27" s="31" t="s">
+      <c r="AE27" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="25">
         <f>IF(A28=A27,B27+1,1)</f>
         <v>3</v>
       </c>
-      <c r="C28" s="27" t="str">
+      <c r="C28" s="25" t="str">
         <f t="shared" si="14"/>
         <v>Crabwalk (BTC/ETH) - 3</v>
       </c>
@@ -2953,19 +3244,19 @@
       <c r="E28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="36">
-        <v>1</v>
-      </c>
-      <c r="J28" s="37">
+      <c r="F28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="34">
+        <v>1</v>
+      </c>
+      <c r="J28" s="35">
         <v>1</v>
       </c>
       <c r="K28" s="17">
@@ -2974,7 +3265,7 @@
       <c r="L28" s="17">
         <v>1</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="45" t="s">
         <v>20</v>
       </c>
       <c r="N28" s="8" t="s">
@@ -2989,36 +3280,44 @@
       <c r="Q28" s="15">
         <v>0.1</v>
       </c>
-      <c r="R28" s="29">
+      <c r="R28" s="27">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="S28" s="15">
         <v>0</v>
       </c>
-      <c r="T28" s="29">
+      <c r="T28" s="27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U28" s="22">
+      <c r="U28" s="20">
         <v>0.5</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="5">
         <v>1000</v>
       </c>
-      <c r="W28" s="31" t="s">
+      <c r="AE28" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="25">
         <f>IF(A29=A28,B28+1,1)</f>
         <v>4</v>
       </c>
-      <c r="C29" s="27" t="str">
+      <c r="C29" s="25" t="str">
         <f t="shared" si="14"/>
         <v>Crabwalk (BTC/ETH) - 4</v>
       </c>
@@ -3028,19 +3327,19 @@
       <c r="E29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="36">
-        <v>1</v>
-      </c>
-      <c r="J29" s="37">
+      <c r="F29" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="34">
+        <v>1</v>
+      </c>
+      <c r="J29" s="35">
         <v>1</v>
       </c>
       <c r="K29" s="17">
@@ -3049,7 +3348,7 @@
       <c r="L29" s="17">
         <v>1</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="45" t="s">
         <v>20</v>
       </c>
       <c r="N29" s="8" t="s">
@@ -3064,36 +3363,44 @@
       <c r="Q29" s="15">
         <v>0.1</v>
       </c>
-      <c r="R29" s="29">
+      <c r="R29" s="27">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="S29" s="15">
         <v>0</v>
       </c>
-      <c r="T29" s="29">
+      <c r="T29" s="27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U29" s="22">
+      <c r="U29" s="20">
         <v>0.5</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="5">
         <v>1000</v>
       </c>
-      <c r="W29" s="31" t="s">
+      <c r="AE29" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="25">
         <f t="shared" ref="B30" si="17">IF(A30=A29,B29+1,1)</f>
         <v>5</v>
       </c>
-      <c r="C30" s="27" t="str">
+      <c r="C30" s="25" t="str">
         <f t="shared" si="14"/>
         <v>Crabwalk (BTC/ETH) - 5</v>
       </c>
@@ -3103,19 +3410,19 @@
       <c r="E30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="36">
-        <v>1</v>
-      </c>
-      <c r="J30" s="37">
+      <c r="F30" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="34">
+        <v>1</v>
+      </c>
+      <c r="J30" s="35">
         <v>1</v>
       </c>
       <c r="K30" s="17">
@@ -3124,7 +3431,7 @@
       <c r="L30" s="17">
         <v>1</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="45" t="s">
         <v>20</v>
       </c>
       <c r="N30" s="8" t="s">
@@ -3139,36 +3446,44 @@
       <c r="Q30" s="15">
         <v>0.1</v>
       </c>
-      <c r="R30" s="29">
+      <c r="R30" s="27">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="S30" s="15">
         <v>0</v>
       </c>
-      <c r="T30" s="29">
+      <c r="T30" s="27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U30" s="22">
+      <c r="U30" s="20">
         <v>0.5</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="5">
         <v>1000</v>
       </c>
-      <c r="W30" s="31" t="s">
+      <c r="AE30" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="25">
         <f>IF(A31=A30,B30+1,1)</f>
         <v>1</v>
       </c>
-      <c r="C31" s="27" t="str">
+      <c r="C31" s="25" t="str">
         <f t="shared" si="14"/>
         <v>Trend down (BTC/ETH ) - 1</v>
       </c>
@@ -3178,19 +3493,19 @@
       <c r="E31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="36">
-        <v>1</v>
-      </c>
-      <c r="J31" s="37">
+      <c r="F31" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="34">
+        <v>1</v>
+      </c>
+      <c r="J31" s="35">
         <v>1</v>
       </c>
       <c r="K31" s="17">
@@ -3199,7 +3514,7 @@
       <c r="L31" s="17">
         <v>1</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="45" t="s">
         <v>20</v>
       </c>
       <c r="N31" s="8" t="s">
@@ -3214,36 +3529,44 @@
       <c r="Q31" s="15">
         <v>0.1</v>
       </c>
-      <c r="R31" s="29">
+      <c r="R31" s="27">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="S31" s="15">
         <v>0</v>
       </c>
-      <c r="T31" s="29">
+      <c r="T31" s="27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U31" s="22">
+      <c r="U31" s="20">
         <v>0.5</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="5">
         <v>1000</v>
       </c>
-      <c r="W31" s="31" t="s">
+      <c r="AE31" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="25">
         <f>IF(A32=A31,B31+1,1)</f>
         <v>2</v>
       </c>
-      <c r="C32" s="27" t="str">
+      <c r="C32" s="25" t="str">
         <f t="shared" si="14"/>
         <v>Trend down (BTC/ETH ) - 2</v>
       </c>
@@ -3253,19 +3576,19 @@
       <c r="E32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="36">
-        <v>1</v>
-      </c>
-      <c r="J32" s="37">
+      <c r="F32" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="34">
+        <v>1</v>
+      </c>
+      <c r="J32" s="35">
         <v>1</v>
       </c>
       <c r="K32" s="17">
@@ -3274,7 +3597,7 @@
       <c r="L32" s="17">
         <v>1</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="45" t="s">
         <v>20</v>
       </c>
       <c r="N32" s="8" t="s">
@@ -3289,34 +3612,42 @@
       <c r="Q32" s="15">
         <v>0.1</v>
       </c>
-      <c r="R32" s="29">
+      <c r="R32" s="27">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="S32" s="15">
         <v>0</v>
       </c>
-      <c r="T32" s="29">
+      <c r="T32" s="27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U32" s="22">
-        <v>1</v>
-      </c>
-      <c r="V32" s="5">
+      <c r="U32" s="20">
+        <v>1</v>
+      </c>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="5">
         <v>1000</v>
       </c>
-      <c r="W32" s="31"/>
+      <c r="AE32" s="29"/>
     </row>
-    <row r="33" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="25">
         <f>IF(A33=A32,B32+1,1)</f>
         <v>1</v>
       </c>
-      <c r="C33" s="27" t="str">
+      <c r="C33" s="25" t="str">
         <f t="shared" si="14"/>
         <v>Trend up (ETH/BTC ) - 1</v>
       </c>
@@ -3326,19 +3657,19 @@
       <c r="E33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="36">
-        <v>1</v>
-      </c>
-      <c r="J33" s="37">
+      <c r="F33" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="34">
+        <v>1</v>
+      </c>
+      <c r="J33" s="35">
         <v>1</v>
       </c>
       <c r="K33" s="17">
@@ -3347,7 +3678,7 @@
       <c r="L33" s="17">
         <v>1</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="45" t="s">
         <v>20</v>
       </c>
       <c r="N33" s="8" t="s">
@@ -3362,36 +3693,44 @@
       <c r="Q33" s="15">
         <v>0.1</v>
       </c>
-      <c r="R33" s="29">
+      <c r="R33" s="27">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="S33" s="15">
         <v>0</v>
       </c>
-      <c r="T33" s="29">
+      <c r="T33" s="27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U33" s="22">
-        <v>0</v>
-      </c>
-      <c r="V33" s="5">
+      <c r="U33" s="20">
+        <v>0</v>
+      </c>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="5">
         <v>1000</v>
       </c>
-      <c r="W33" s="31" t="s">
+      <c r="AE33" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="25">
         <f>IF(A34=A33,B33+1,1)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="27" t="str">
+      <c r="C34" s="25" t="str">
         <f t="shared" si="14"/>
         <v>Trend up (ETH/BTC ) - 2</v>
       </c>
@@ -3401,19 +3740,19 @@
       <c r="E34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="36">
-        <v>1</v>
-      </c>
-      <c r="J34" s="37">
+      <c r="F34" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="35">
         <v>1</v>
       </c>
       <c r="K34" s="17">
@@ -3422,7 +3761,7 @@
       <c r="L34" s="17">
         <v>1</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="45" t="s">
         <v>20</v>
       </c>
       <c r="N34" s="8" t="s">
@@ -3437,36 +3776,44 @@
       <c r="Q34" s="15">
         <v>0.1</v>
       </c>
-      <c r="R34" s="29">
+      <c r="R34" s="27">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="S34" s="15">
         <v>0</v>
       </c>
-      <c r="T34" s="29">
+      <c r="T34" s="27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U34" s="22">
-        <v>0</v>
-      </c>
-      <c r="V34" s="5">
+      <c r="U34" s="20">
+        <v>0</v>
+      </c>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="5">
         <v>1000</v>
       </c>
-      <c r="W34" s="31" t="s">
+      <c r="AE34" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="25">
         <f>IF(A35=A34,B34+1,1)</f>
         <v>3</v>
       </c>
-      <c r="C35" s="27" t="str">
+      <c r="C35" s="25" t="str">
         <f t="shared" si="14"/>
         <v>Trend up (ETH/BTC ) - 3</v>
       </c>
@@ -3476,19 +3823,19 @@
       <c r="E35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="36">
-        <v>1</v>
-      </c>
-      <c r="J35" s="37">
+      <c r="F35" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="34">
+        <v>1</v>
+      </c>
+      <c r="J35" s="35">
         <v>1</v>
       </c>
       <c r="K35" s="17">
@@ -3497,7 +3844,7 @@
       <c r="L35" s="17">
         <v>1</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="45" t="s">
         <v>20</v>
       </c>
       <c r="N35" s="8" t="s">
@@ -3512,642 +3859,672 @@
       <c r="Q35" s="15">
         <v>0.1</v>
       </c>
-      <c r="R35" s="29">
+      <c r="R35" s="27">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="S35" s="15">
         <v>0</v>
       </c>
-      <c r="T35" s="29">
+      <c r="T35" s="27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U35" s="22">
-        <v>0</v>
-      </c>
-      <c r="V35" s="5">
+      <c r="U35" s="20">
+        <v>0</v>
+      </c>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="5">
         <v>1000</v>
       </c>
-      <c r="W35" s="31" t="s">
+      <c r="AE35" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="25">
+        <f>IF(A36=A35,B35+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f t="shared" ref="C36" si="18">A36&amp;" - "&amp;B36</f>
+        <v>Uniswap v3 - 1</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="34">
+        <v>1</v>
+      </c>
+      <c r="J36" s="35">
+        <v>1</v>
+      </c>
+      <c r="K36" s="17">
+        <v>0</v>
+      </c>
+      <c r="L36" s="17">
+        <v>1</v>
+      </c>
+      <c r="M36" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O36" s="14"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="41">
+        <v>12</v>
+      </c>
+      <c r="W36" s="41">
+        <v>18</v>
+      </c>
+      <c r="X36" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE36" s="29"/>
+    </row>
+    <row r="37" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="25">
+        <f>IF(A37=A36,B36+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C37" s="25" t="str">
+        <f t="shared" ref="C37" si="19">A37&amp;" - "&amp;B37</f>
+        <v>Uniswap v3 - 2</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="34">
+        <v>1</v>
+      </c>
+      <c r="J37" s="35">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17">
+        <v>0</v>
+      </c>
+      <c r="L37" s="17">
+        <v>1</v>
+      </c>
+      <c r="M37" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" s="14"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="41">
+        <v>13</v>
+      </c>
+      <c r="W37" s="41">
+        <v>17</v>
+      </c>
+      <c r="X37" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE37" s="29"/>
+    </row>
+    <row r="38" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="25">
+        <f>IF(A38=A37,B37+1,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="25" t="str">
+        <f t="shared" ref="C38" si="20">A38&amp;" - "&amp;B38</f>
+        <v>Uniswap v3 - 3</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="34">
+        <v>1</v>
+      </c>
+      <c r="J38" s="35">
+        <v>1</v>
+      </c>
+      <c r="K38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L38" s="17">
+        <v>1</v>
+      </c>
+      <c r="M38" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="14"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="41">
+        <v>12</v>
+      </c>
+      <c r="W38" s="41">
+        <v>16</v>
+      </c>
+      <c r="X38" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE38" s="29"/>
+    </row>
+    <row r="39" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="25">
+        <f t="shared" ref="B39:B40" si="21">IF(A39=A38,B38+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="25" t="str">
+        <f t="shared" ref="C39:C40" si="22">A39&amp;" - "&amp;B39</f>
+        <v>Fixed - 1</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="34">
+        <v>1</v>
+      </c>
+      <c r="J39" s="35">
+        <v>1</v>
+      </c>
+      <c r="K39" s="17">
+        <v>0</v>
+      </c>
+      <c r="L39" s="17">
+        <v>1</v>
+      </c>
+      <c r="M39" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O39" s="14"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="14">
+        <v>14</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>12</v>
+      </c>
+      <c r="AB39" s="14">
+        <v>16</v>
+      </c>
+      <c r="AC39" s="14">
+        <v>18</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE39" s="29"/>
+    </row>
+    <row r="40" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="25">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="C40" s="25" t="str">
+        <f t="shared" si="22"/>
+        <v>Fixed - 2</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="34">
+        <v>1</v>
+      </c>
+      <c r="J40" s="35">
+        <v>1</v>
+      </c>
+      <c r="K40" s="17">
+        <v>0</v>
+      </c>
+      <c r="L40" s="17">
+        <v>1</v>
+      </c>
+      <c r="M40" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O40" s="14"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="14">
+        <v>14</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>12</v>
+      </c>
+      <c r="AB40" s="14">
+        <v>16</v>
+      </c>
+      <c r="AC40" s="14">
+        <v>18</v>
+      </c>
+      <c r="AD40" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE40" s="29"/>
+    </row>
+    <row r="41" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="25">
+        <f t="shared" ref="B41" si="23">IF(A41=A40,B40+1,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C41" s="25" t="str">
+        <f t="shared" ref="C41" si="24">A41&amp;" - "&amp;B41</f>
+        <v>Fixed - 3</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="34">
+        <v>1</v>
+      </c>
+      <c r="J41" s="35">
+        <v>1</v>
+      </c>
+      <c r="K41" s="17">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17">
+        <v>1</v>
+      </c>
+      <c r="M41" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O41" s="14"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="14">
+        <v>14</v>
+      </c>
+      <c r="AA41" s="14">
+        <v>12</v>
+      </c>
+      <c r="AB41" s="14">
+        <v>16</v>
+      </c>
+      <c r="AC41" s="14">
+        <v>18</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE41" s="29"/>
+    </row>
+    <row r="42" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="28">
-        <f t="shared" ref="B35:B44" si="18">IF(A36=A35,B35+1,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C36" s="28" t="str">
+      <c r="B42" s="26">
+        <f t="shared" ref="B42:B44" si="25">IF(A42=A41,B41+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C42" s="26" t="str">
         <f t="shared" si="14"/>
         <v>na - 1</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="38">
-        <v>1</v>
-      </c>
-      <c r="J36" s="39">
-        <v>1</v>
-      </c>
-      <c r="K36" s="18">
-        <v>0</v>
-      </c>
-      <c r="L36" s="18">
-        <v>1</v>
-      </c>
-      <c r="M36" s="20" t="s">
+      <c r="F42" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="36">
+        <v>1</v>
+      </c>
+      <c r="J42" s="37">
+        <v>1</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0</v>
+      </c>
+      <c r="L42" s="18">
+        <v>1</v>
+      </c>
+      <c r="M42" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O42" s="39">
         <v>100</v>
       </c>
-      <c r="P36" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q36" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R36" s="29">
+      <c r="P42" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q42" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R42" s="27">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
-      <c r="S36" s="15">
-        <v>0</v>
-      </c>
-      <c r="T36" s="29">
+      <c r="S42" s="27">
+        <v>0</v>
+      </c>
+      <c r="T42" s="27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U36" s="23">
+      <c r="U42" s="21">
         <v>0.5</v>
       </c>
-      <c r="V36" s="6">
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="6">
         <v>1000</v>
       </c>
-      <c r="W36" s="32"/>
+      <c r="AE42" s="30"/>
     </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
+    <row r="43" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="28">
-        <f t="shared" si="18"/>
+      <c r="B43" s="26">
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="C37" s="28" t="str">
+      <c r="C43" s="26" t="str">
         <f t="shared" si="14"/>
         <v>na - 2</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="38">
-        <v>1</v>
-      </c>
-      <c r="J37" s="39">
-        <v>1</v>
-      </c>
-      <c r="K37" s="18">
-        <v>0</v>
-      </c>
-      <c r="L37" s="18">
-        <v>1</v>
-      </c>
-      <c r="M37" s="20" t="s">
+      <c r="F43" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="36">
+        <v>1</v>
+      </c>
+      <c r="J43" s="37">
+        <v>1</v>
+      </c>
+      <c r="K43" s="18">
+        <v>0</v>
+      </c>
+      <c r="L43" s="18">
+        <v>1</v>
+      </c>
+      <c r="M43" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="N43" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O43" s="39">
         <v>100</v>
       </c>
-      <c r="P37" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R37" s="29">
+      <c r="P43" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q43" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R43" s="27">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
-      <c r="S37" s="15">
-        <v>0</v>
-      </c>
-      <c r="T37" s="29">
+      <c r="S43" s="27">
+        <v>0</v>
+      </c>
+      <c r="T43" s="27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U37" s="23">
+      <c r="U43" s="21">
         <v>0.5</v>
       </c>
-      <c r="V37" s="6">
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="6">
         <v>1000</v>
       </c>
-      <c r="W37" s="32"/>
+      <c r="AE43" s="30"/>
     </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
+    <row r="44" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="28">
-        <f t="shared" si="18"/>
+      <c r="B44" s="26">
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="C38" s="28" t="str">
+      <c r="C44" s="26" t="str">
         <f t="shared" si="14"/>
         <v>na - 3</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="38">
-        <v>1</v>
-      </c>
-      <c r="J38" s="39">
-        <v>1</v>
-      </c>
-      <c r="K38" s="18">
-        <v>0</v>
-      </c>
-      <c r="L38" s="18">
-        <v>1</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" s="14">
-        <v>100</v>
-      </c>
-      <c r="P38" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q38" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R38" s="29">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="S38" s="15">
-        <v>0</v>
-      </c>
-      <c r="T38" s="29">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="V38" s="6">
-        <v>1000</v>
-      </c>
-      <c r="W38" s="32"/>
-    </row>
-    <row r="39" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="28">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="C39" s="28" t="str">
-        <f t="shared" si="14"/>
-        <v>na - 4</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="38">
-        <v>1</v>
-      </c>
-      <c r="J39" s="39">
-        <v>1</v>
-      </c>
-      <c r="K39" s="18">
-        <v>0</v>
-      </c>
-      <c r="L39" s="18">
-        <v>1</v>
-      </c>
-      <c r="M39" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O39" s="14">
-        <v>100</v>
-      </c>
-      <c r="P39" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q39" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R39" s="29">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="S39" s="15">
-        <v>0</v>
-      </c>
-      <c r="T39" s="29">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="V39" s="6">
-        <v>1000</v>
-      </c>
-      <c r="W39" s="32"/>
-    </row>
-    <row r="40" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="28">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="C40" s="28" t="str">
-        <f t="shared" si="14"/>
-        <v>na - 5</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="38">
-        <v>1</v>
-      </c>
-      <c r="J40" s="39">
-        <v>1</v>
-      </c>
-      <c r="K40" s="18">
-        <v>0</v>
-      </c>
-      <c r="L40" s="18">
-        <v>1</v>
-      </c>
-      <c r="M40" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O40" s="14">
-        <v>100</v>
-      </c>
-      <c r="P40" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q40" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R40" s="29">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="S40" s="15">
-        <v>0</v>
-      </c>
-      <c r="T40" s="29">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="V40" s="6">
-        <v>1000</v>
-      </c>
-      <c r="W40" s="32"/>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="28">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="C41" s="28" t="str">
-        <f t="shared" si="14"/>
-        <v>na - 6</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="38">
-        <v>1</v>
-      </c>
-      <c r="J41" s="39">
-        <v>1</v>
-      </c>
-      <c r="K41" s="18">
-        <v>0</v>
-      </c>
-      <c r="L41" s="18">
-        <v>1</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="14">
-        <v>100</v>
-      </c>
-      <c r="P41" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q41" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R41" s="29">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="S41" s="15">
-        <v>0</v>
-      </c>
-      <c r="T41" s="29">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="V41" s="6">
-        <v>1000</v>
-      </c>
-      <c r="W41" s="32"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="28">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="C42" s="28" t="str">
-        <f t="shared" si="14"/>
-        <v>na - 7</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="38">
-        <v>1</v>
-      </c>
-      <c r="J42" s="39">
-        <v>1</v>
-      </c>
-      <c r="K42" s="18">
-        <v>0</v>
-      </c>
-      <c r="L42" s="18">
-        <v>1</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O42" s="14">
-        <v>100</v>
-      </c>
-      <c r="P42" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q42" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R42" s="29">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="S42" s="15">
-        <v>0</v>
-      </c>
-      <c r="T42" s="29">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="V42" s="6">
-        <v>1000</v>
-      </c>
-      <c r="W42" s="32"/>
-    </row>
-    <row r="43" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="28">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="C43" s="28" t="str">
-        <f t="shared" si="14"/>
-        <v>na - 8</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="38">
-        <v>1</v>
-      </c>
-      <c r="J43" s="39">
-        <v>1</v>
-      </c>
-      <c r="K43" s="18">
-        <v>0</v>
-      </c>
-      <c r="L43" s="18">
-        <v>1</v>
-      </c>
-      <c r="M43" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O43" s="14">
-        <v>100</v>
-      </c>
-      <c r="P43" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R43" s="29">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="S43" s="15">
-        <v>0</v>
-      </c>
-      <c r="T43" s="29">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="V43" s="6">
-        <v>1000</v>
-      </c>
-      <c r="W43" s="32"/>
-    </row>
-    <row r="44" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="28">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="C44" s="28" t="str">
-        <f t="shared" si="14"/>
-        <v>na - 9</v>
-      </c>
       <c r="D44" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="38">
-        <v>1</v>
-      </c>
-      <c r="J44" s="39">
+      <c r="F44" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="36">
+        <v>1</v>
+      </c>
+      <c r="J44" s="37">
         <v>1</v>
       </c>
       <c r="K44" s="18">
@@ -4156,51 +4533,59 @@
       <c r="L44" s="18">
         <v>1</v>
       </c>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="46" t="s">
         <v>20</v>
       </c>
       <c r="N44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44" s="39">
         <v>100</v>
       </c>
-      <c r="P44" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q44" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R44" s="29">
+      <c r="P44" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q44" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R44" s="27">
         <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
-      <c r="S44" s="15">
-        <v>0</v>
-      </c>
-      <c r="T44" s="29">
+      <c r="S44" s="27">
+        <v>0</v>
+      </c>
+      <c r="T44" s="27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U44" s="23">
+      <c r="U44" s="21">
         <v>0.5</v>
       </c>
-      <c r="V44" s="6">
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="39"/>
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="39"/>
+      <c r="AD44" s="6">
         <v>1000</v>
       </c>
-      <c r="W44" s="32"/>
+      <c r="AE44" s="30"/>
     </row>
-    <row r="45" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
+    <row r="45" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="28">
-        <f t="shared" ref="B33:B50" si="19">IF(A45=A44,B44+1,1)</f>
-        <v>10</v>
-      </c>
-      <c r="C45" s="28" t="str">
+      <c r="B45" s="26">
+        <f t="shared" ref="B45:B50" si="26">IF(A45=A44,B44+1,1)</f>
+        <v>4</v>
+      </c>
+      <c r="C45" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>na - 10</v>
+        <v>na - 4</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>18</v>
@@ -4208,19 +4593,19 @@
       <c r="E45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="38">
-        <v>1</v>
-      </c>
-      <c r="J45" s="39">
+      <c r="F45" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="36">
+        <v>1</v>
+      </c>
+      <c r="J45" s="37">
         <v>1</v>
       </c>
       <c r="K45" s="18">
@@ -4229,51 +4614,59 @@
       <c r="L45" s="18">
         <v>1</v>
       </c>
-      <c r="M45" s="20" t="s">
+      <c r="M45" s="46" t="s">
         <v>20</v>
       </c>
       <c r="N45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O45" s="39">
         <v>100</v>
       </c>
-      <c r="P45" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q45" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R45" s="29">
-        <f t="shared" ref="R24:R50" si="20">Q45</f>
-        <v>0.1</v>
-      </c>
-      <c r="S45" s="15">
-        <v>0</v>
-      </c>
-      <c r="T45" s="29">
-        <f t="shared" ref="T24:T50" si="21">S45</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="23">
+      <c r="P45" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q45" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R45" s="27">
+        <f t="shared" ref="R45:R50" si="27">Q45</f>
+        <v>0.1</v>
+      </c>
+      <c r="S45" s="27">
+        <v>0</v>
+      </c>
+      <c r="T45" s="27">
+        <f t="shared" ref="T45:T50" si="28">S45</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="21">
         <v>0.5</v>
       </c>
-      <c r="V45" s="6">
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="6">
         <v>1000</v>
       </c>
-      <c r="W45" s="32"/>
+      <c r="AE45" s="30"/>
     </row>
-    <row r="46" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28" t="s">
+    <row r="46" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="28">
-        <f t="shared" si="19"/>
-        <v>11</v>
-      </c>
-      <c r="C46" s="28" t="str">
+      <c r="B46" s="26">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="C46" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>na - 11</v>
+        <v>na - 5</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>18</v>
@@ -4281,19 +4674,19 @@
       <c r="E46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="38">
-        <v>1</v>
-      </c>
-      <c r="J46" s="39">
+      <c r="F46" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="36">
+        <v>1</v>
+      </c>
+      <c r="J46" s="37">
         <v>1</v>
       </c>
       <c r="K46" s="18">
@@ -4302,51 +4695,59 @@
       <c r="L46" s="18">
         <v>1</v>
       </c>
-      <c r="M46" s="20" t="s">
+      <c r="M46" s="46" t="s">
         <v>20</v>
       </c>
       <c r="N46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="39">
         <v>100</v>
       </c>
-      <c r="P46" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q46" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R46" s="29">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="S46" s="15">
-        <v>0</v>
-      </c>
-      <c r="T46" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="23">
+      <c r="P46" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q46" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R46" s="27">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="S46" s="27">
+        <v>0</v>
+      </c>
+      <c r="T46" s="27">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="21">
         <v>0.5</v>
       </c>
-      <c r="V46" s="6">
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="39"/>
+      <c r="AA46" s="39"/>
+      <c r="AB46" s="39"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="6">
         <v>1000</v>
       </c>
-      <c r="W46" s="32"/>
+      <c r="AE46" s="30"/>
     </row>
-    <row r="47" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
+    <row r="47" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="28">
-        <f t="shared" si="19"/>
-        <v>12</v>
-      </c>
-      <c r="C47" s="28" t="str">
+      <c r="B47" s="26">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="C47" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>na - 12</v>
+        <v>na - 6</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>18</v>
@@ -4354,19 +4755,19 @@
       <c r="E47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" s="38">
-        <v>1</v>
-      </c>
-      <c r="J47" s="39">
+      <c r="F47" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="36">
+        <v>1</v>
+      </c>
+      <c r="J47" s="37">
         <v>1</v>
       </c>
       <c r="K47" s="18">
@@ -4375,51 +4776,59 @@
       <c r="L47" s="18">
         <v>1</v>
       </c>
-      <c r="M47" s="20" t="s">
+      <c r="M47" s="46" t="s">
         <v>20</v>
       </c>
       <c r="N47" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="39">
         <v>100</v>
       </c>
-      <c r="P47" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q47" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R47" s="29">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="S47" s="15">
-        <v>0</v>
-      </c>
-      <c r="T47" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="23">
+      <c r="P47" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q47" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R47" s="27">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="S47" s="27">
+        <v>0</v>
+      </c>
+      <c r="T47" s="27">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="21">
         <v>0.5</v>
       </c>
-      <c r="V47" s="6">
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="6">
         <v>1000</v>
       </c>
-      <c r="W47" s="32"/>
+      <c r="AE47" s="30"/>
     </row>
-    <row r="48" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
+    <row r="48" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="28">
-        <f t="shared" si="19"/>
-        <v>13</v>
-      </c>
-      <c r="C48" s="28" t="str">
+      <c r="B48" s="26">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="C48" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>na - 13</v>
+        <v>na - 7</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>18</v>
@@ -4427,19 +4836,19 @@
       <c r="E48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" s="38">
-        <v>1</v>
-      </c>
-      <c r="J48" s="39">
+      <c r="F48" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="36">
+        <v>1</v>
+      </c>
+      <c r="J48" s="37">
         <v>1</v>
       </c>
       <c r="K48" s="18">
@@ -4448,51 +4857,59 @@
       <c r="L48" s="18">
         <v>1</v>
       </c>
-      <c r="M48" s="20" t="s">
+      <c r="M48" s="46" t="s">
         <v>20</v>
       </c>
       <c r="N48" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O48" s="39">
         <v>100</v>
       </c>
-      <c r="P48" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q48" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R48" s="29">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="S48" s="15">
-        <v>0</v>
-      </c>
-      <c r="T48" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="23">
+      <c r="P48" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q48" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R48" s="27">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="S48" s="27">
+        <v>0</v>
+      </c>
+      <c r="T48" s="27">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="21">
         <v>0.5</v>
       </c>
-      <c r="V48" s="6">
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="39"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="6">
         <v>1000</v>
       </c>
-      <c r="W48" s="32"/>
+      <c r="AE48" s="30"/>
     </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
+    <row r="49" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="28">
-        <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="C49" s="28" t="str">
+      <c r="B49" s="26">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="C49" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>na - 14</v>
+        <v>na - 8</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>18</v>
@@ -4500,19 +4917,19 @@
       <c r="E49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" s="38">
-        <v>1</v>
-      </c>
-      <c r="J49" s="39">
+      <c r="F49" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="36">
+        <v>1</v>
+      </c>
+      <c r="J49" s="37">
         <v>1</v>
       </c>
       <c r="K49" s="18">
@@ -4521,51 +4938,59 @@
       <c r="L49" s="18">
         <v>1</v>
       </c>
-      <c r="M49" s="20" t="s">
+      <c r="M49" s="46" t="s">
         <v>20</v>
       </c>
       <c r="N49" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O49" s="39">
         <v>100</v>
       </c>
-      <c r="P49" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q49" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R49" s="29">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="S49" s="15">
-        <v>0</v>
-      </c>
-      <c r="T49" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="23">
+      <c r="P49" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q49" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R49" s="27">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="S49" s="27">
+        <v>0</v>
+      </c>
+      <c r="T49" s="27">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="21">
         <v>0.5</v>
       </c>
-      <c r="V49" s="6">
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="6">
         <v>1000</v>
       </c>
-      <c r="W49" s="32"/>
+      <c r="AE49" s="30"/>
     </row>
-    <row r="50" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
+    <row r="50" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="28">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="C50" s="28" t="str">
+      <c r="B50" s="26">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="C50" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>na - 15</v>
+        <v>na - 9</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>18</v>
@@ -4573,19 +4998,19 @@
       <c r="E50" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" s="38">
-        <v>1</v>
-      </c>
-      <c r="J50" s="39">
+      <c r="F50" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="36">
+        <v>1</v>
+      </c>
+      <c r="J50" s="37">
         <v>1</v>
       </c>
       <c r="K50" s="18">
@@ -4594,49 +5019,59 @@
       <c r="L50" s="18">
         <v>1</v>
       </c>
-      <c r="M50" s="20" t="s">
+      <c r="M50" s="46" t="s">
         <v>20</v>
       </c>
       <c r="N50" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O50" s="39">
         <v>100</v>
       </c>
-      <c r="P50" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="Q50" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="R50" s="29">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="S50" s="15">
-        <v>0</v>
-      </c>
-      <c r="T50" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="23">
+      <c r="P50" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Q50" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="R50" s="27">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="S50" s="27">
+        <v>0</v>
+      </c>
+      <c r="T50" s="27">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="21">
         <v>0.5</v>
       </c>
-      <c r="V50" s="6">
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="6">
         <v>1000</v>
       </c>
-      <c r="W50" s="32"/>
+      <c r="AE50" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W50" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Explainer (hf/lf)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AE50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N50" xr:uid="{A98706D5-398F-0D40-9DD2-B55A1E832DF4}">
+      <formula1>"mgw,fixed,uv3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:H50" xr:uid="{0963BD4C-1F3F-154B-A2B9-0CE85D579E4D}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>